--- a/data/trans_camb/P57GLOBAL_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>13.57477858592697</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-12.09893609362305</v>
+        <v>-12.09893609362304</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7310841020134795</v>
@@ -664,7 +664,7 @@
         <v>11.61502573871733</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-10.87610807248771</v>
+        <v>-10.8761080724877</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.299241675979615</v>
+        <v>-7.374702522653245</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.078092564382027</v>
+        <v>4.47752874941306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.01131471811737</v>
+        <v>-15.40428429845882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.922949413235987</v>
+        <v>-4.231093455965207</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.434580087458483</v>
+        <v>7.35033010356188</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.95881185803059</v>
+        <v>-18.57984778482295</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.48226726142416</v>
+        <v>-4.718981743270556</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.437290665457789</v>
+        <v>6.996901338404915</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-15.24514415975578</v>
+        <v>-15.26959951765109</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.011928703344786</v>
+        <v>5.157231865717915</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.95114216324406</v>
+        <v>16.25133987583153</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.652243774442532</v>
+        <v>-3.372298959430603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.94894063775564</v>
+        <v>11.05231103208533</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>20.29499930209985</v>
+        <v>20.88200776201302</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.801842450398879</v>
+        <v>-4.380371705400899</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.350970642318898</v>
+        <v>5.50393626261719</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.31804211194373</v>
+        <v>15.78229781720116</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-6.616415083149104</v>
+        <v>-6.235372143238566</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2026670255918207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1806331775799394</v>
+        <v>-0.1806331775799392</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.01072544854271646</v>
@@ -769,7 +769,7 @@
         <v>0.1703994937652784</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1595591220698427</v>
+        <v>-0.1595591220698425</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1023147994803985</v>
+        <v>-0.1034619978787523</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.05698817473974206</v>
+        <v>0.06442672855116519</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2232058341570012</v>
+        <v>-0.216061327499845</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05586963977624336</v>
+        <v>-0.05996174274014318</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09074162599052342</v>
+        <v>0.1018780128450912</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2648973021067921</v>
+        <v>-0.2623423868501497</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06343750734603618</v>
+        <v>-0.06775017222032301</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1054908969123065</v>
+        <v>0.09945768427428893</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2165584258464908</v>
+        <v>-0.2187946038556755</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.07624943614601877</v>
+        <v>0.07876908276710028</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2482682154331189</v>
+        <v>0.2493484036627556</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.05529995440383842</v>
+        <v>-0.05132043726960962</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1776495885006212</v>
+        <v>0.1746469182910914</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3216832025493982</v>
+        <v>0.339972113388863</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.09203800446523325</v>
+        <v>-0.07062356718759089</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08215884355478027</v>
+        <v>0.08322589285485006</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2507292192858046</v>
+        <v>0.2396587498793538</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.09975432084944119</v>
+        <v>-0.0957230009557946</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>12.81276342797505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.274897607472492</v>
+        <v>1.274897607472514</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.694473641678499</v>
@@ -869,7 +869,7 @@
         <v>12.05848204728161</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.961436787449035</v>
+        <v>-3.961436787449024</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.187531321915106</v>
@@ -878,7 +878,7 @@
         <v>12.40843284463946</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.299305299077258</v>
+        <v>-1.299305299077236</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.709271329058577</v>
+        <v>-3.983001291054407</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.847888211911831</v>
+        <v>5.480937524774304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.288337335044584</v>
+        <v>-5.820428838214201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9360311294758009</v>
+        <v>-1.037580149257712</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.320898419618294</v>
+        <v>5.854558404598627</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.32502997483673</v>
+        <v>-10.44110958544644</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8255780857173111</v>
+        <v>-1.091684477790158</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.519335887978527</v>
+        <v>7.59240327751879</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.147780596026351</v>
+        <v>-6.588784138666405</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.54318302507946</v>
+        <v>10.13737334480842</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.96435181380714</v>
+        <v>19.57171301761563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.604071600841709</v>
+        <v>7.643449803356482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.98679539133533</v>
+        <v>12.9329226505002</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.13737407028011</v>
+        <v>19.19621688880589</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.302491251844833</v>
+        <v>2.168188713305759</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.108629849583743</v>
+        <v>8.861289770533272</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.29632405542934</v>
+        <v>17.32786590029319</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.492979538822398</v>
+        <v>3.243025141080878</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1985439006694426</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.01975554651926735</v>
+        <v>0.01975554651926769</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.08370513542797563</v>
@@ -974,7 +974,7 @@
         <v>0.1772520054243333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.0582305975315826</v>
+        <v>-0.05823059753158244</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.06316294846898698</v>
@@ -983,7 +983,7 @@
         <v>0.1871635443644658</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.01959817069823516</v>
+        <v>-0.01959817069823483</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05534456370779958</v>
+        <v>-0.05698145170767312</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.08851377532750812</v>
+        <v>0.08345364035384033</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09089949217568598</v>
+        <v>-0.08468664462662676</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01399041913671727</v>
+        <v>-0.01306261826561598</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07440477877200065</v>
+        <v>0.08374716460892229</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1423773933893343</v>
+        <v>-0.1456701486531555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01111578341149307</v>
+        <v>-0.01760078636670374</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1100522097165366</v>
+        <v>0.1103052819739974</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08964756101308398</v>
+        <v>-0.09558362767922478</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1746923337767229</v>
+        <v>0.1684316914833837</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3347474688637421</v>
+        <v>0.3324167774925709</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1268854521469504</v>
+        <v>0.1258364523571249</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2066540761089201</v>
+        <v>0.2021637243878844</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2825285889427725</v>
+        <v>0.307564642153991</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0367918522136825</v>
+        <v>0.03436422007785564</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1440791533131636</v>
+        <v>0.1378217244187898</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2741329733208661</v>
+        <v>0.2715411030761014</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.05335791215391349</v>
+        <v>0.05125708546787359</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>11.75094128771783</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.754406497434331</v>
+        <v>-9.754406497434342</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.9781494485862186</v>
@@ -1083,7 +1083,7 @@
         <v>16.44299354002047</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-5.12898276635021</v>
+        <v>-5.128982766350221</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.439887757833095</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.831332330701</v>
+        <v>-11.5305393274869</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.783401519952929</v>
+        <v>7.221371857876459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.70507382800546</v>
+        <v>-15.77052859211347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.109314965417912</v>
+        <v>-8.144225083037519</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.151823402029646</v>
+        <v>8.032080924470542</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-13.64003834331896</v>
+        <v>-13.78760215357385</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.861457073464196</v>
+        <v>-8.552928484109906</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.087779524585267</v>
+        <v>8.839024941781091</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.25000051225698</v>
+        <v>-13.3444537097418</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.9744382259206388</v>
+        <v>-0.7297557486901405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.6291205264381</v>
+        <v>16.8456977221367</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.777718425370138</v>
+        <v>-3.496982605912649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.70829892488339</v>
+        <v>10.14639009178668</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>24.60818158563703</v>
+        <v>25.5848343449665</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.421982118076215</v>
+        <v>4.445090548071143</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1880441248290154</v>
+        <v>0.2670856427831091</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.142198890427</v>
+        <v>17.50766646032132</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.870450655086358</v>
+        <v>-3.762035810689284</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1571926612551423</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1304849610557405</v>
+        <v>-0.1304849610557406</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.0136622426640987</v>
@@ -1188,7 +1188,7 @@
         <v>0.229666507702545</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.07163875343909701</v>
+        <v>-0.07163875343909716</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.05998963012945079</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1519820331145172</v>
+        <v>-0.148716419605546</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.08581679451564649</v>
+        <v>0.09478592646043772</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2054886740925904</v>
+        <v>-0.203102431681911</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1059094817905048</v>
+        <v>-0.1083028316856749</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09389240046727031</v>
+        <v>0.1034998474275313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.178698507871764</v>
+        <v>-0.1799152692145023</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1169887623700859</v>
+        <v>-0.1129069514781849</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1198700945334893</v>
+        <v>0.1159063502015928</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1768142061807406</v>
+        <v>-0.1761522896273466</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.01348703701656907</v>
+        <v>-0.01017102215180894</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2303550056880264</v>
+        <v>0.2356661923577578</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.05352374489282207</v>
+        <v>-0.04724323678668286</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1612959672966204</v>
+        <v>0.1578226485553781</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3726421626901781</v>
+        <v>0.392700224104914</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08287091800427848</v>
+        <v>0.06919921175363672</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.001908061328397613</v>
+        <v>0.00366853156076853</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2423030075073182</v>
+        <v>0.2454815390778917</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05397721842339506</v>
+        <v>-0.05101397182018812</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>11.30688619583677</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-9.739654817589816</v>
+        <v>-9.739654817589793</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.5795350249962916</v>
@@ -1306,7 +1306,7 @@
         <v>10.21993260646236</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-7.854450247169376</v>
+        <v>-7.854450247169398</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.616573031712207</v>
+        <v>-6.392359113603782</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.508777744614417</v>
+        <v>5.857876102960385</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.35601732146573</v>
+        <v>-11.18585096904331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7232660063663736</v>
+        <v>1.009201685283258</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.549724930778709</v>
+        <v>7.377146231643191</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.57837335551051</v>
+        <v>-14.07582149009729</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.222087406326726</v>
+        <v>-2.147303799121221</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.638890262072688</v>
+        <v>7.573323383858176</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.71017940487019</v>
+        <v>-10.66841534711787</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.938942405065583</v>
+        <v>1.030088049120758</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.3923396925346</v>
+        <v>12.80859783616665</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.549014072678446</v>
+        <v>-2.818482926846631</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.08627449091716</v>
+        <v>10.07726813050295</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.24219925664583</v>
+        <v>15.573943337926</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-4.956565540648919</v>
+        <v>-5.080835573992026</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.396497911383562</v>
+        <v>3.778246831064298</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.74080574338104</v>
+        <v>12.89765228574925</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.826432564381545</v>
+        <v>-4.868217505679584</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1516424381647314</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1306234959688554</v>
+        <v>-0.1306234959688551</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.007886662188043363</v>
@@ -1411,7 +1411,7 @@
         <v>0.1390790074374778</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1068880966644163</v>
+        <v>-0.1068880966644166</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08800699460061233</v>
+        <v>-0.08501161678911316</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07458484434999706</v>
+        <v>0.07841569193629701</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1383747798272343</v>
+        <v>-0.1491938092181563</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.009496707468213855</v>
+        <v>0.01449908873960449</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09819805319650006</v>
+        <v>0.09387590012964118</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1780582892053257</v>
+        <v>-0.183249537634489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02955674746068468</v>
+        <v>-0.02883380304126439</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1014064483127409</v>
+        <v>0.09987231757453151</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1423856248846094</v>
+        <v>-0.1437142008652454</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01356553640814586</v>
+        <v>0.01490992486882484</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1745022892024873</v>
+        <v>0.1804640586659777</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.03414973577399513</v>
+        <v>-0.03940760812183329</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1396416206141295</v>
+        <v>0.1416828534314456</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.214894680359647</v>
+        <v>0.2170330102484629</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.06904265084197153</v>
+        <v>-0.07094358095537877</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0475464915520571</v>
+        <v>0.05280903046482083</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1774549684715073</v>
+        <v>0.1803507738476638</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.06597090448955532</v>
+        <v>-0.06759114061382185</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>7.662205322135385</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-7.340819594776926</v>
+        <v>-7.340819594776915</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.262641761153582</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.933662638566836</v>
+        <v>-4.824097588695172</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.184512645096792</v>
+        <v>5.780268779415888</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.159342962711163</v>
+        <v>-8.818120476850821</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.354935485463455</v>
+        <v>-7.702000943050466</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.607412622154815</v>
+        <v>3.44123488299069</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.45850857960217</v>
+        <v>-11.49708854045925</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.098008587574467</v>
+        <v>-5.187666953054539</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.197499590929866</v>
+        <v>5.629301410930971</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.149436248257601</v>
+        <v>-8.898615767424333</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.512655790384044</v>
+        <v>7.973864022282545</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.38965436654782</v>
+        <v>17.3545814516721</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.687574263331825</v>
+        <v>4.878138958144806</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.414657800283779</v>
+        <v>2.123933248139666</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.12847450394595</v>
+        <v>11.61492238954301</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.083160959306082</v>
+        <v>-2.88645044226124</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.617799984210992</v>
+        <v>2.11709684993272</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.60063105610629</v>
+        <v>12.11818933359362</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.375370747009496</v>
+        <v>-1.812709974076067</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.09625650596895177</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.09221909560428225</v>
+        <v>-0.09221909560428211</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.01647171713699864</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06661205806379558</v>
+        <v>-0.06422532744143286</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.0817190865883107</v>
+        <v>0.07563843901574963</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1101483674432443</v>
+        <v>-0.1154441131578035</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08936092706908233</v>
+        <v>-0.09236999134652631</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04324975521230662</v>
+        <v>0.04311701817516257</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1405444626858184</v>
+        <v>-0.140718612957204</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.06461711547158207</v>
+        <v>-0.06580136062896853</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.06515907371410244</v>
+        <v>0.07120748778299195</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1167189649241105</v>
+        <v>-0.114545001177285</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.109913448290026</v>
+        <v>0.1205284178952551</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2544602559931703</v>
+        <v>0.2546261440113042</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06993059152908954</v>
+        <v>0.07235028791124455</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.03198992049090831</v>
+        <v>0.02858588622930161</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1575900345682554</v>
+        <v>0.1509599036580929</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.04005356352555677</v>
+        <v>-0.03806670694988798</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03475594822887345</v>
+        <v>0.02811687001356699</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1689848314032575</v>
+        <v>0.1641845684309811</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.02052535336556084</v>
+        <v>-0.02450050033718047</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>18.99844034135015</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-12.02672089111189</v>
+        <v>-12.02672089111187</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.966625611671503</v>
@@ -1725,7 +1725,7 @@
         <v>14.42367063596951</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-4.708929926000116</v>
+        <v>-4.708929926000105</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.581509343621391</v>
@@ -1734,7 +1734,7 @@
         <v>15.20361729240813</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-6.620671961502755</v>
+        <v>-6.620671961502767</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.136027620733351</v>
+        <v>-7.016886967685627</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>11.53280784544637</v>
+        <v>11.58822939554457</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-23.46563797170769</v>
+        <v>-24.38391084263229</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7106815351206156</v>
+        <v>-0.9593905450825647</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>10.95077174132302</v>
+        <v>11.08418401411323</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.163180302665852</v>
+        <v>-8.955153416883494</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.231362113944454</v>
+        <v>-0.8101989633371989</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>12.08236053265249</v>
+        <v>12.31104400782998</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-10.84904098715513</v>
+        <v>-11.20482326089414</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.188304960967614</v>
+        <v>9.868502543766256</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>26.0202711125963</v>
+        <v>25.88659679592923</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.3306203395914154</v>
+        <v>-0.8031273161645173</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.719361921419921</v>
+        <v>6.532344016620977</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>17.70963121621878</v>
+        <v>17.37972504938044</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.4305168624719155</v>
+        <v>-0.718913881212582</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.130694115759892</v>
+        <v>5.847758469229237</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>18.34286602438091</v>
+        <v>18.20721966102943</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.37425375851589</v>
+        <v>-2.251382977272918</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.315653283208186</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1998202940504199</v>
+        <v>-0.1998202940504196</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.04219324116306405</v>
@@ -1830,7 +1830,7 @@
         <v>0.2051426412573747</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.06697340412824995</v>
+        <v>-0.06697340412824979</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.037761486490571</v>
@@ -1839,7 +1839,7 @@
         <v>0.2223936126412416</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.09684505518080934</v>
+        <v>-0.09684505518080951</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1126044102713958</v>
+        <v>-0.1094268167647891</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1788273170767803</v>
+        <v>0.1829697248701498</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3763837378850971</v>
+        <v>-0.3877317887746251</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.009708389131846218</v>
+        <v>-0.01328806018695603</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1511410641147381</v>
+        <v>0.1530272105320064</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1271222021340626</v>
+        <v>-0.125747505978252</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.01766859308920045</v>
+        <v>-0.01153635090205616</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1739414917344384</v>
+        <v>0.1739194019641204</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1564560059516115</v>
+        <v>-0.1621340506761638</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1657516473427896</v>
+        <v>0.1794453579288847</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4651436781941957</v>
+        <v>0.4711842870048872</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.003902349524374921</v>
+        <v>-0.00681307585684842</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.0979735961373662</v>
+        <v>0.09573243850401983</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2590747597802618</v>
+        <v>0.2533528609044888</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.006363141929233452</v>
+        <v>-0.01108833990629172</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0919703067878746</v>
+        <v>0.08762555007945298</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2795631283372597</v>
+        <v>0.2725027208312751</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.03589760153774363</v>
+        <v>-0.03371741956634818</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>11.47613532556666</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-6.157056149227236</v>
+        <v>-6.157056149227225</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.985491210974811</v>
@@ -1948,7 +1948,7 @@
         <v>12.00301938506186</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-6.548983573526545</v>
+        <v>-6.548983573526557</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.80371303090751</v>
+        <v>-3.657330782541805</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>9.376584035354322</v>
+        <v>9.353581898369731</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.517773133915393</v>
+        <v>-9.013589647816854</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.8907551287413553</v>
+        <v>0.9305946230494969</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>10.51768848318449</v>
+        <v>10.29126671006247</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.932544913515606</v>
+        <v>-9.148343744718916</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.7702374271486336</v>
+        <v>-0.8948065176766287</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>10.49156719345008</v>
+        <v>10.49696837245469</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-8.197720639215621</v>
+        <v>-8.318494759434895</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.7806539430213715</v>
+        <v>0.9039789462275141</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.51651402454625</v>
+        <v>13.79610120283983</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-3.332096396649657</v>
+        <v>-3.688073290337959</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.150914011114222</v>
+        <v>5.207091183990226</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.56965548188896</v>
+        <v>14.39364248004752</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-4.633961115578599</v>
+        <v>-4.843512817523266</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.330095257369686</v>
+        <v>2.329767381221952</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.37013678332071</v>
+        <v>13.36341412323189</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-5.0621639028157</v>
+        <v>-4.820054592872287</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.1629761385138721</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.08743825402430049</v>
+        <v>-0.08743825402430032</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.0413020790578356</v>
@@ -2053,7 +2053,7 @@
         <v>0.1681901587358718</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.09176645904286938</v>
+        <v>-0.09176645904286955</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.05339876994271293</v>
+        <v>-0.05135396442253928</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1311418867094578</v>
+        <v>0.1304419481331127</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1200234701218815</v>
+        <v>-0.1261897233838855</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.01229465578028966</v>
+        <v>0.01279816547353777</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1427294300043127</v>
+        <v>0.1398411082970751</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.121292328817739</v>
+        <v>-0.1241616826710366</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01066872089866348</v>
+        <v>-0.01245257441426981</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1449657430746122</v>
+        <v>0.1446539906575862</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1133639633667</v>
+        <v>-0.1151651051649156</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.01168040952968663</v>
+        <v>0.01302928111177334</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1960022542273784</v>
+        <v>0.2001362362652041</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.04767561286789675</v>
+        <v>-0.05376092994389341</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.07238868232170513</v>
+        <v>0.0730608530525263</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2052160952334177</v>
+        <v>0.2035144997465588</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.06507086635973978</v>
+        <v>-0.06760290873662157</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03291406901117049</v>
+        <v>0.03293723026254841</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1899861365216247</v>
+        <v>0.1893958692584048</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.07151184565309207</v>
+        <v>-0.06871286713209405</v>
       </c>
     </row>
     <row r="46">
